--- a/individual_case_outputs/avey/445.xlsx
+++ b/individual_case_outputs/avey/445.xlsx
@@ -736,7 +736,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>acute arterial ischaemia due to thrombosis</t>
+          <t>torn muscle</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -801,13 +801,13 @@
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>torn muscle</t>
+          <t>chronic venous insufficiency</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
-          <t>peripheral vascular disease</t>
+          <t>superficial thrombophlebitis</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -856,11 +856,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>chronic venous insufficiency</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
@@ -887,7 +883,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>peripheral vascular disease</t>
+          <t>superficial thrombophlebitis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -905,11 +901,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>critical chronic arterial ischemia</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
